--- a/Documents/MeetingAttendance.xlsx
+++ b/Documents/MeetingAttendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Uni\Northumbria\Year 2\Software Practice\Team-Molyneux-3-\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D553CF-8F12-47A8-BD09-19E4CB11CEC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2501127-1C6A-420F-9C6A-E36473A081AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EBF99300-BF31-4A80-A9F1-53ED5FCA9388}"/>
+    <workbookView xWindow="4470" yWindow="2115" windowWidth="21600" windowHeight="11400" xr2:uid="{EBF99300-BF31-4A80-A9F1-53ED5FCA9388}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Daniel Beales</t>
   </si>
@@ -60,42 +60,6 @@
     <t>Tasks Assignments</t>
   </si>
   <si>
-    <r>
-      <t>James:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  1 hour:- Prototyping the players/games HUD system in a series of sketches.</t>
-    </r>
-  </si>
-  <si>
-    <t>1 hour:- Researching the missions james has selected. Ie gameplay programming.</t>
-  </si>
-  <si>
-    <t>2 Hours:- Install and set up unreal and any other programs necessary. Experiment on unreal and on the missions at hand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Jordon:  2 hours:- sketching and listing objects that we will need, or can potentially created.</t>
-  </si>
-  <si>
-    <t>2 Hours:- Interactions experiments and research.</t>
-  </si>
-  <si>
-    <t>Daniel: 1 hour:- Managerial stuff, writing our minutes, Creating repositories and research on managerial tools.</t>
-  </si>
-  <si>
-    <t>3 hours:- Environment experiments.</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -118,6 +82,60 @@
   </si>
   <si>
     <t>Jordon</t>
+  </si>
+  <si>
+    <t>Managerial stuff, writing our minutes, Creating repositories and research on managerial</t>
+  </si>
+  <si>
+    <t>Enviroment Experiments</t>
+  </si>
+  <si>
+    <t>Sketches and object lists</t>
+  </si>
+  <si>
+    <t>Interaction Experiements and research</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Model: Create a basic model to implement the blueprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blueprint - Create a sliding door. With multiple functions </t>
+  </si>
+  <si>
+    <t>Finish Hallway Models</t>
+  </si>
+  <si>
+    <t>Start designing and workong on maze</t>
+  </si>
+  <si>
+    <t>Add emergancy lights, sound spotlights as one blueprint</t>
+  </si>
+  <si>
+    <t>Did not get set any tasks due to no attendance</t>
+  </si>
+  <si>
+    <t>Late but Attended</t>
+  </si>
+  <si>
+    <t>Fix Small Door Errors</t>
+  </si>
+  <si>
+    <t>Add Door and Button Functionality and animations</t>
+  </si>
+  <si>
+    <t>Create Maze Base Structure</t>
+  </si>
+  <si>
+    <t>Add More Sound Markers</t>
+  </si>
+  <si>
+    <t>Add doors into the maze</t>
+  </si>
+  <si>
+    <t>Family Emergancy</t>
   </si>
 </sst>
 </file>
@@ -181,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +247,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -349,15 +391,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,11 +526,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -380,38 +536,164 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -729,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB184A9-84EF-479F-BC98-A35548471121}">
-  <dimension ref="B1:V37"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:V17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,433 +1024,842 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
         <v>43516</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>43530</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>43537</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>43544</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="G8" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>43551</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="G9" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+    </row>
+    <row r="10" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>43558</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>43565</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>43566</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>43572</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+    </row>
+    <row r="13" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>43579</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>43586</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>43516</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6">
+        <v>43516</v>
+      </c>
+      <c r="J19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18" t="s">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="6">
+        <v>43516</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <v>43516</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6">
+        <v>43516</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="6">
+        <v>43516</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>43516</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6">
+        <v>43516</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="6">
+        <v>43516</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+    </row>
+    <row r="23" spans="2:22" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
+        <v>43530</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="18" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="35">
+        <v>43530</v>
+      </c>
+      <c r="J23" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="20"/>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="17"/>
-    </row>
-    <row r="19" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>43516</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7">
-        <v>43516</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="7">
-        <v>43516</v>
-      </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
-        <v>43516</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="35">
+        <v>43530</v>
+      </c>
+      <c r="Q23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+    </row>
+    <row r="24" spans="2:22" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="35">
+        <v>43530</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="35">
+        <v>43530</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="35">
+        <v>43530</v>
+      </c>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="25"/>
+    </row>
+    <row r="25" spans="2:22" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35">
+        <v>43530</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="35">
+        <v>43530</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="35">
+        <v>43530</v>
+      </c>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+    </row>
+    <row r="26" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+    </row>
+    <row r="27" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="35">
+        <v>43537</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="41">
+        <v>43537</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="41">
+        <v>43537</v>
+      </c>
+      <c r="Q27" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+    </row>
+    <row r="28" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35">
+        <v>43537</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="41">
+        <v>43537</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="41">
+        <v>43537</v>
+      </c>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+    </row>
+    <row r="29" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35">
+        <v>43537</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="41">
+        <v>43537</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="41">
+        <v>43537</v>
+      </c>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+    </row>
+    <row r="30" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+    </row>
+    <row r="31" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" s="47" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7">
-        <v>43516</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="7">
-        <v>43516</v>
-      </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
-        <v>43516</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="7">
-        <v>43516</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="7">
-        <v>43516</v>
-      </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E30" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D32" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="P17:V17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q21:T21"/>
+  <mergeCells count="46">
+    <mergeCell ref="Q27:T29"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="Q23:T25"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G11:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="B17:H17"/>
@@ -1177,16 +1868,13 @@
     <mergeCell ref="I17:O17"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B15:G16"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="P17:V17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>